--- a/daily_log.xlsx
+++ b/daily_log.xlsx
@@ -3317,7 +3317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3466,15 +3466,11 @@
       <c r="H2" t="n">
         <v>50</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>HECTOR</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>05/12/25</t>
@@ -3490,8 +3486,55 @@
           <t>13:53</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Compra</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RAMA TABLADA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HLSD</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>15200</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>05/12/25</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily_log.xlsx
+++ b/daily_log.xlsx
@@ -22,6 +22,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-11-27" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-12-04" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-12-05" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-12-09" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3509,8 +3510,6 @@
       <c r="E3" t="n">
         <v>15200</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3521,7 +3520,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>05/12/25</t>
@@ -3532,9 +3530,208 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="30" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Registro ID</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tipo Operación</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Contraparte</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Producto</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Peso Bruto (kg)</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Peso Tara (kg)</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Merma (kg)</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Peso Neto (kg)</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Precio x Kg</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Importe</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Chofer/Transporte</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Patente</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Incoterm</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Fecha Operacion</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Hora Ingreso</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Hora Salida</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Remito</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>Observaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Compra</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Proveedor Test Timezone</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Producto Test</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>950</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>95000</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Chofer Test</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ABC123</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>09/12/25</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Prueba de zona horaria</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
